--- a/config/config_ml_models_development/MasterTable_process_b_y3.xlsx
+++ b/config/config_ml_models_development/MasterTable_process_b_y3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="13305" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="13905" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -73,9 +73,6 @@
     <t>USE_ACTUAL_MODEL</t>
   </si>
   <si>
-    <t>MLB</t>
-  </si>
-  <si>
     <t>FEATURES_NAMES</t>
   </si>
   <si>
@@ -85,9 +82,6 @@
     <t>…</t>
   </si>
   <si>
-    <t>MLA</t>
-  </si>
-  <si>
     <t>W2</t>
   </si>
   <si>
@@ -101,6 +95,12 @@
   </si>
   <si>
     <t>Variable target del proceso B que finaliza el proceso</t>
+  </si>
+  <si>
+    <t>PR_B_Y2/PR_B_Y3</t>
+  </si>
+  <si>
+    <t>PR_B_Y3</t>
   </si>
 </sst>
 </file>
@@ -448,7 +448,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,7 +464,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -496,7 +496,7 @@
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -516,7 +516,7 @@
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -536,15 +536,15 @@
         <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -556,18 +556,18 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
@@ -576,18 +576,18 @@
         <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
         <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
@@ -596,18 +596,18 @@
         <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
@@ -616,18 +616,18 @@
         <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
@@ -636,7 +636,7 @@
         <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
